--- a/Documents/Amazon_Login.xlsx
+++ b/Documents/Amazon_Login.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">amrutha.ravisankar.04@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ammu0404</t>
+    <t xml:space="preserve">amruthar@04</t>
   </si>
 </sst>
 </file>
@@ -41,11 +41,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -63,16 +64,26 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="14"/>
       <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,6 +138,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,17 +225,17 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -228,17 +243,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="amrutha.ravisankar.04@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="amruthar@04"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
